--- a/BridgeNetwork/GuideLine.xlsx
+++ b/BridgeNetwork/GuideLine.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create Bridge Network" sheetId="2" r:id="rId1"/>
     <sheet name="Apache_PHP" sheetId="1" r:id="rId2"/>
+    <sheet name="MySQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>I. Checkout docker file to create apache, php</t>
-  </si>
-  <si>
-    <t>1.1. GIT: https://github.com/nhanvo/alpine-apache-php.git</t>
+    <t>GIT: https://github.com/nhanvo/alpine-apache-php.git</t>
   </si>
   <si>
     <t>1. Check network before create</t>
@@ -54,10 +52,46 @@
     <t>docker network inspect www-net</t>
   </si>
   <si>
-    <t>1.2 Build docker images</t>
+    <t>docker build -t alpine-apache-php:latest .</t>
   </si>
   <si>
-    <t>docker build -t alpine-apache-php:latest .</t>
+    <t>2 Build docker images</t>
+  </si>
+  <si>
+    <t>1. Checkout docker file to create apache, php</t>
+  </si>
+  <si>
+    <t>3. Create apache, php container</t>
+  </si>
+  <si>
+    <t>ocker run --detach --name alpine-apache-php --hostname docker_training.com --publish 8080:80 --restart always --volume /Users/nhanvo/Desktop/docker_training/BridgeNetwork/www:/htdocs alpine-apache-php:latest</t>
+  </si>
+  <si>
+    <t>4. Set network for containner</t>
+  </si>
+  <si>
+    <t>4.1 Check before create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 Set network </t>
+  </si>
+  <si>
+    <t>docker network connect www-net alpine-apache-php</t>
+  </si>
+  <si>
+    <t>docker inspect alpine-apache-php</t>
+  </si>
+  <si>
+    <t>4.5 Disconnect network</t>
+  </si>
+  <si>
+    <t>docker network disconnect bridge alpine-apache-php</t>
+  </si>
+  <si>
+    <t>4.6 Check connect localhost</t>
+  </si>
+  <si>
+    <t>Link: http://localhost:8080/master.php</t>
   </si>
 </sst>
 </file>
@@ -709,6 +743,1506 @@
         <a:xfrm>
           <a:off x="11023600" y="1917700"/>
           <a:ext cx="2184400" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="5867400"/>
+          <a:ext cx="9436100" cy="2235200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15570200" y="6515100"/>
+          <a:ext cx="1511300" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="6972300"/>
+          <a:ext cx="1866900" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>203201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="7747001"/>
+          <a:ext cx="1473200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29909"/>
+            <a:gd name="adj2" fmla="val -164008"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Images was created</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="9220200"/>
+          <a:ext cx="10058400" cy="2409616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10833100" y="9677400"/>
+          <a:ext cx="9690100" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14503400" y="10363200"/>
+          <a:ext cx="1231900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11938000" y="11061700"/>
+          <a:ext cx="1638300" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12936682" y="11637819"/>
+          <a:ext cx="1622136" cy="416791"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29909"/>
+            <a:gd name="adj2" fmla="val -164008"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>container was</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> created</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>169477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="13144500"/>
+          <a:ext cx="10058400" cy="5744777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14516100" y="14909800"/>
+          <a:ext cx="2743200" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>237143</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21234400" y="13131800"/>
+          <a:ext cx="8898543" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22192673" y="18163309"/>
+          <a:ext cx="3098800" cy="1586346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>11547</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>177675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10818092" y="22167273"/>
+          <a:ext cx="9975272" cy="3779857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>237835</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13815290" y="22548273"/>
+          <a:ext cx="3422073" cy="369455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>188762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10806545" y="26046545"/>
+          <a:ext cx="10058400" cy="6561853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>184727</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>184727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>4618</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376727" y="26231272"/>
+          <a:ext cx="3422073" cy="1639455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>219363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411364" y="29210000"/>
+          <a:ext cx="3613727" cy="2043545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>196501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10806545" y="33528000"/>
+          <a:ext cx="10058400" cy="2690319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>256310</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15496310" y="33922854"/>
+          <a:ext cx="5019963" cy="517237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10806545" y="36576000"/>
+          <a:ext cx="9652000" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>265545</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>196274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11418454" y="36772273"/>
+          <a:ext cx="1593273" cy="277092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16279090" y="28390272"/>
+          <a:ext cx="1743365" cy="496455"/>
+          <a:chOff x="16279090" y="28390272"/>
+          <a:chExt cx="1743365" cy="496455"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rounded Rectangular Callout 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16279090" y="28390272"/>
+            <a:ext cx="1622136" cy="416791"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -79731"/>
+              <a:gd name="adj2" fmla="val -180629"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>container was</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> created</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rounded Rectangular Callout 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16281399" y="28392582"/>
+            <a:ext cx="1741056" cy="494145"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -66920"/>
+              <a:gd name="adj2" fmla="val 143471"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>container was</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> connected to two network</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangular Callout 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14062363" y="36991636"/>
+          <a:ext cx="1754910" cy="808182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -109397"/>
+            <a:gd name="adj2" fmla="val -65279"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>After disconnect bridge network then only www-net</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> network is connecting</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>23092</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>106219</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>174163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829637" y="41852273"/>
+          <a:ext cx="10058400" cy="5427345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>187036</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>117763</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>13856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11547763" y="41854582"/>
+          <a:ext cx="1593273" cy="277092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,9 +2547,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C33"/>
+  <dimension ref="B2:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="AN51" sqref="AN51"/>
     </sheetView>
   </sheetViews>
@@ -1023,14 +2557,14 @@
   <sheetData>
     <row r="2" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
     </row>
@@ -1063,24 +2597,27 @@
     </row>
     <row r="14" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="51" spans="40:40" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,32 +2627,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AK2:AM20"/>
+  <dimension ref="AK2:AM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BG19" sqref="BG19:BH19"/>
+    <sheetView topLeftCell="AJ126" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="CK147" sqref="CK147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AK2" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL19" t="s">
+    <row r="19" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM20" s="4" t="s">
-        <v>9</v>
+    <row r="20" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL77" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM78" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM79" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM121" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL149" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM150" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1123,4 +2715,27 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BridgeNetwork/GuideLine.xlsx
+++ b/BridgeNetwork/GuideLine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>GIT: https://github.com/nhanvo/alpine-apache-php.git</t>
   </si>
@@ -82,9 +82,6 @@
     <t>docker inspect alpine-apache-php</t>
   </si>
   <si>
-    <t>4.5 Disconnect network</t>
-  </si>
-  <si>
     <t>docker network disconnect bridge alpine-apache-php</t>
   </si>
   <si>
@@ -92,6 +89,48 @@
   </si>
   <si>
     <t>Link: http://localhost:8080/master.php</t>
+  </si>
+  <si>
+    <t>GIT: https://github.com/container-examples/alpine-mysql.git</t>
+  </si>
+  <si>
+    <t>1. Checkout alpine mysql</t>
+  </si>
+  <si>
+    <t>2. Build images from source</t>
+  </si>
+  <si>
+    <t>docker build -t alpine-mysql:latest .</t>
+  </si>
+  <si>
+    <t>3. Check images build successful</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t>4. Build containers</t>
+  </si>
+  <si>
+    <t>docker run -d --name alpine-mysql -p 3306:3306 --env-file .env alpine-mysql</t>
+  </si>
+  <si>
+    <t>5. Set network for mysql container</t>
+  </si>
+  <si>
+    <t>docker inspect alpine-mysql</t>
+  </si>
+  <si>
+    <t>docker network connect www-net alpine-mysql</t>
+  </si>
+  <si>
+    <t>docker network disconnect bridge alpine-mysql</t>
+  </si>
+  <si>
+    <t>4.5 Disconnect bridge default network</t>
+  </si>
+  <si>
+    <t>6. Disconnect bridge default network</t>
   </si>
 </sst>
 </file>
@@ -2243,6 +2282,799 @@
         <a:xfrm>
           <a:off x="11547763" y="41854582"/>
           <a:ext cx="1593273" cy="277092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>265353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="9485553"/>
+          <a:ext cx="10058400" cy="2542505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="1117600"/>
+          <a:ext cx="4940300" cy="3302000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="2374901"/>
+          <a:ext cx="1943100" cy="1968499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>203201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1155700" y="10820401"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="5588000"/>
+          <a:ext cx="10058400" cy="2804386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="6413501"/>
+          <a:ext cx="3898900" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9569</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19711</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847769" y="13131800"/>
+          <a:ext cx="11186142" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="13728701"/>
+          <a:ext cx="5346700" cy="241299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="14325601"/>
+          <a:ext cx="1041400" cy="215899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="16205200"/>
+          <a:ext cx="8826500" cy="3759200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5232400" y="17322800"/>
+          <a:ext cx="2984500" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10337800" y="16205200"/>
+          <a:ext cx="4025900" cy="3873500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10579100" y="16205200"/>
+          <a:ext cx="939800" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="20955000"/>
+          <a:ext cx="4508500" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="21196300"/>
+          <a:ext cx="3505200" cy="3937000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2629,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AK2:AM150"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ126" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="CK147" sqref="CK147"/>
+    <sheetView topLeftCell="AJ105" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AL120" sqref="AL120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2692,22 +3524,22 @@
     </row>
     <row r="120" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AL120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM121" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM121" s="1" t="s">
+    <row r="149" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL149" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL149" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="150" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AM150" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="AK82" sqref="AK82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2730,12 +3562,73 @@
     <col min="2" max="2" width="3.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
-        <v>1</v>
+    <row r="2" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BridgeNetwork/GuideLine.xlsx
+++ b/BridgeNetwork/GuideLine.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create Bridge Network" sheetId="2" r:id="rId1"/>
     <sheet name="Apache_PHP" sheetId="1" r:id="rId2"/>
     <sheet name="MySQL" sheetId="3" r:id="rId3"/>
+    <sheet name="Normal error" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -2039,8 +2040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16279090" y="28390272"/>
-          <a:ext cx="1743365" cy="496455"/>
+          <a:off x="15992103" y="27885570"/>
+          <a:ext cx="1708729" cy="486559"/>
           <a:chOff x="16279090" y="28390272"/>
           <a:chExt cx="1743365" cy="496455"/>
         </a:xfrm>
@@ -3381,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AN51" sqref="AN51"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3461,7 +3462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AK2:AM150"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ105" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="AL120" sqref="AL120"/>
     </sheetView>
   </sheetViews>
@@ -3553,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="AK82" sqref="AK82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3631,4 +3632,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BridgeNetwork/GuideLine.xlsx
+++ b/BridgeNetwork/GuideLine.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Bridge Network" sheetId="2" r:id="rId1"/>
-    <sheet name="Apache_PHP" sheetId="1" r:id="rId2"/>
-    <sheet name="MySQL" sheetId="3" r:id="rId3"/>
-    <sheet name="Normal error" sheetId="4" r:id="rId4"/>
+    <sheet name="Ovẻview" sheetId="5" r:id="rId1"/>
+    <sheet name="Create Bridge Network" sheetId="2" r:id="rId2"/>
+    <sheet name="Apache_PHP" sheetId="1" r:id="rId3"/>
+    <sheet name="MySQL" sheetId="3" r:id="rId4"/>
+    <sheet name="Normal error" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>GIT: https://github.com/nhanvo/alpine-apache-php.git</t>
   </si>
@@ -133,6 +134,36 @@
   <si>
     <t>6. Disconnect bridge default network</t>
   </si>
+  <si>
+    <t>1. Overview about example we will build</t>
+  </si>
+  <si>
+    <t>2. When we access server web then display screen same below</t>
+  </si>
+  <si>
+    <t>2.1 localhost:8080</t>
+  </si>
+  <si>
+    <t>2.2 http://localhost:8080/doctor/create.php</t>
+  </si>
+  <si>
+    <t>2.3 http://localhost:8080/doctor/</t>
+  </si>
+  <si>
+    <t>2.4 http://localhost:8080/doctor/update.php?id=3</t>
+  </si>
+  <si>
+    <t>2.5 Remove docter</t>
+  </si>
+  <si>
+    <t>3. Connect mysql by MySQL Workbrench</t>
+  </si>
+  <si>
+    <t>3.1 Config</t>
+  </si>
+  <si>
+    <t>3.2 Connect</t>
+  </si>
 </sst>
 </file>
 
@@ -217,6 +248,602 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="850900"/>
+          <a:ext cx="7137400" cy="5118100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>59606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="6997700"/>
+          <a:ext cx="10058400" cy="6473106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>192107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="14249400"/>
+          <a:ext cx="10058400" cy="7456507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>186682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="22631400"/>
+          <a:ext cx="10058400" cy="7451082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>180843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="31013400"/>
+          <a:ext cx="10058400" cy="7445243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>192107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="39395400"/>
+          <a:ext cx="10058400" cy="7456507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9740900" y="41859200"/>
+          <a:ext cx="622300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8267700" y="41059100"/>
+          <a:ext cx="1473200" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>23838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="48069500"/>
+          <a:ext cx="10058400" cy="6716738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="50203100"/>
+          <a:ext cx="3098800" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangular Callout 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712200" y="49999900"/>
+          <a:ext cx="1320800" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -113870"/>
+            <a:gd name="adj2" fmla="val 62501"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User: nhanvo</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pass: nhanvo@123</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>243265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="55600600"/>
+          <a:ext cx="10058400" cy="5551865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
@@ -715,7 +1342,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2324,7 +2951,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3380,9 +4007,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="AG226" sqref="AG226"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3458,7 +4151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AK2:AM150"/>
   <sheetViews>
@@ -3550,11 +4243,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3634,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/BridgeNetwork/GuideLine.xlsx
+++ b/BridgeNetwork/GuideLine.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Ovẻview" sheetId="5" r:id="rId1"/>
+    <sheet name="Overview" sheetId="5" r:id="rId1"/>
     <sheet name="Create Bridge Network" sheetId="2" r:id="rId2"/>
     <sheet name="Apache_PHP" sheetId="1" r:id="rId3"/>
     <sheet name="MySQL" sheetId="3" r:id="rId4"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>GIT: https://github.com/nhanvo/alpine-apache-php.git</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>1. Check network before create</t>
   </si>
@@ -54,55 +51,16 @@
     <t>docker network inspect www-net</t>
   </si>
   <si>
-    <t>docker build -t alpine-apache-php:latest .</t>
-  </si>
-  <si>
     <t>2 Build docker images</t>
-  </si>
-  <si>
-    <t>1. Checkout docker file to create apache, php</t>
   </si>
   <si>
     <t>3. Create apache, php container</t>
   </si>
   <si>
-    <t>ocker run --detach --name alpine-apache-php --hostname docker_training.com --publish 8080:80 --restart always --volume /Users/nhanvo/Desktop/docker_training/BridgeNetwork/www:/htdocs alpine-apache-php:latest</t>
-  </si>
-  <si>
-    <t>4. Set network for containner</t>
-  </si>
-  <si>
-    <t>4.1 Check before create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 Set network </t>
-  </si>
-  <si>
-    <t>docker network connect www-net alpine-apache-php</t>
-  </si>
-  <si>
     <t>docker inspect alpine-apache-php</t>
   </si>
   <si>
-    <t>docker network disconnect bridge alpine-apache-php</t>
-  </si>
-  <si>
-    <t>4.6 Check connect localhost</t>
-  </si>
-  <si>
-    <t>Link: http://localhost:8080/master.php</t>
-  </si>
-  <si>
-    <t>GIT: https://github.com/container-examples/alpine-mysql.git</t>
-  </si>
-  <si>
-    <t>1. Checkout alpine mysql</t>
-  </si>
-  <si>
     <t>2. Build images from source</t>
-  </si>
-  <si>
-    <t>docker build -t alpine-mysql:latest .</t>
   </si>
   <si>
     <t>3. Check images build successful</t>
@@ -114,25 +72,7 @@
     <t>4. Build containers</t>
   </si>
   <si>
-    <t>docker run -d --name alpine-mysql -p 3306:3306 --env-file .env alpine-mysql</t>
-  </si>
-  <si>
-    <t>5. Set network for mysql container</t>
-  </si>
-  <si>
     <t>docker inspect alpine-mysql</t>
-  </si>
-  <si>
-    <t>docker network connect www-net alpine-mysql</t>
-  </si>
-  <si>
-    <t>docker network disconnect bridge alpine-mysql</t>
-  </si>
-  <si>
-    <t>4.5 Disconnect bridge default network</t>
-  </si>
-  <si>
-    <t>6. Disconnect bridge default network</t>
   </si>
   <si>
     <t>1. Overview about example we will build</t>
@@ -164,12 +104,219 @@
   <si>
     <t>3.2 Connect</t>
   </si>
+  <si>
+    <t>1. Checkout source from GIT</t>
+  </si>
+  <si>
+    <t>GIT: https://github.com/nhanvo/docker_training.git</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>docker build -t alpine-apache-php:latest .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>] hoặc [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>docker-compose build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run --detach --name alpine-apache-php --hostname docker_training.com --publish 8080:80 --restart always --volume ./www:/htdocs alpine-apache-php:latest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>] [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>docker-compose up -d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Check network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chec source of alpine mysql </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>docker build -t alpine-mysql:latest .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>] or [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>docker-compose build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run -it --name alpine-mysql -p 3306:3306 alpine-mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>] or [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker-compose up -d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Check network </t>
+  </si>
+  <si>
+    <t>1. Case of can't connect DB then cáue of is IP incorrect, so we need check MySQL server IP and update IP of source PHP</t>
+  </si>
+  <si>
+    <t>1.1 Check IP of MySQL host</t>
+  </si>
+  <si>
+    <t>- Access CLI and input command: ifconfig</t>
+  </si>
+  <si>
+    <t>- Click into CLI icon</t>
+  </si>
+  <si>
+    <t>- Get IP: 172.25.0.2</t>
+  </si>
+  <si>
+    <t>- Update IP for PHP source</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +349,16 @@
       <color rgb="FFFF0000"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,12 +380,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,14 +1504,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9212</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168588</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -1378,8 +1536,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10629900" y="1117600"/>
-          <a:ext cx="4927600" cy="3581400"/>
+          <a:off x="847412" y="1117600"/>
+          <a:ext cx="3791576" cy="3581400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1408,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11023600" y="1917700"/>
-          <a:ext cx="2184400" cy="1282700"/>
+          <a:off x="1371600" y="1905000"/>
+          <a:ext cx="1816100" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1450,13 +1608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1494,13 +1652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1554,13 +1712,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
@@ -1614,13 +1772,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>203201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
@@ -1675,13 +1833,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>174416</xdr:rowOff>
@@ -1719,13 +1877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -1779,13 +1937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
@@ -1839,13 +1997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -1899,13 +2057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>150091</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>139701</xdr:rowOff>
@@ -1965,20 +2123,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>169477</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1997,8 +2155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10629900" y="13144500"/>
-          <a:ext cx="10058400" cy="5744777"/>
+          <a:off x="838200" y="13131800"/>
+          <a:ext cx="9730509" cy="4225636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2009,596 +2167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14516100" y="14909800"/>
-          <a:ext cx="2743200" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70426</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>237143</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21234400" y="13131800"/>
-          <a:ext cx="8898543" cy="7772400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22192673" y="18163309"/>
-          <a:ext cx="3098800" cy="1586346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>11547</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>11546</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>177675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10818092" y="22167273"/>
-          <a:ext cx="9975272" cy="3779857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>237835</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>196273</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13815290" y="22548273"/>
-          <a:ext cx="3422073" cy="369455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>188762</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10806545" y="26046545"/>
-          <a:ext cx="10058400" cy="6561853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>184727</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>161636</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12376727" y="26231272"/>
-          <a:ext cx="3422073" cy="1639455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>219364</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>230909</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>219363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12411364" y="29210000"/>
-          <a:ext cx="3613727" cy="2043545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>196501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10806545" y="33528000"/>
-          <a:ext cx="10058400" cy="2690319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>256310</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>117763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>11546</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15496310" y="33922854"/>
-          <a:ext cx="5019963" cy="517237"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>230909</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10806545" y="36576000"/>
-          <a:ext cx="9652000" cy="4191000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>196273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>265545</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>196274</xdr:rowOff>
+      <xdr:rowOff>234373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2607,309 +2185,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11418454" y="36772273"/>
-          <a:ext cx="1593273" cy="277092"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>207817</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>11546</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="Group 27"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15992103" y="27885570"/>
-          <a:ext cx="1708729" cy="486559"/>
-          <a:chOff x="16279090" y="28390272"/>
-          <a:chExt cx="1743365" cy="496455"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Rounded Rectangular Callout 25"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16279090" y="28390272"/>
-            <a:ext cx="1622136" cy="416791"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -79731"/>
-              <a:gd name="adj2" fmla="val -180629"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>container was</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> created</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="Rounded Rectangular Callout 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16281399" y="28392582"/>
-            <a:ext cx="1741056" cy="494145"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRoundRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -66920"/>
-              <a:gd name="adj2" fmla="val 143471"/>
-              <a:gd name="adj3" fmla="val 16667"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>container was</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> connected to two network</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rounded Rectangular Callout 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14062363" y="36991636"/>
-          <a:ext cx="1754910" cy="808182"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -109397"/>
-            <a:gd name="adj2" fmla="val -65279"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>After disconnect bridge network then only www-net</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> network is connecting</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>23092</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>106219</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>174163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10829637" y="41852273"/>
-          <a:ext cx="10058400" cy="5427345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>187036</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>117763</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>13856</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11547763" y="41854582"/>
-          <a:ext cx="1593273" cy="277092"/>
+          <a:off x="1467426" y="13366173"/>
+          <a:ext cx="8883073" cy="3740727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2999,16 +2276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11679</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15137</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3031,8 +2308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="1117600"/>
-          <a:ext cx="4940300" cy="3302000"/>
+          <a:off x="570479" y="850900"/>
+          <a:ext cx="3635658" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3043,16 +2320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3061,8 +2338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193800" y="2374901"/>
-          <a:ext cx="1943100" cy="1968499"/>
+          <a:off x="1079500" y="1828801"/>
+          <a:ext cx="2197100" cy="2120899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3433,18 +2710,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="21" name="Picture 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3463,8 +2740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="16205200"/>
-          <a:ext cx="8826500" cy="3759200"/>
+          <a:off x="838200" y="15925800"/>
+          <a:ext cx="9730509" cy="4225636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3475,26 +2752,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70426</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>234373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5232400" y="17322800"/>
-          <a:ext cx="2984500" cy="279400"/>
+          <a:off x="1467426" y="16160173"/>
+          <a:ext cx="8883073" cy="3740727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3533,28 +2810,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>260995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3567,8 +2849,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10337800" y="16205200"/>
-          <a:ext cx="4025900" cy="3873500"/>
+          <a:off x="850900" y="1409700"/>
+          <a:ext cx="10058400" cy="3880495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3579,26 +2861,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10579100" y="16205200"/>
-          <a:ext cx="939800" cy="279400"/>
+          <a:off x="9055101" y="3111501"/>
+          <a:ext cx="444500" cy="406399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3631,7 +2913,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3639,26 +2924,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3671,8 +2956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="20955000"/>
-          <a:ext cx="4508500" cy="4381500"/>
+          <a:off x="1117600" y="6426200"/>
+          <a:ext cx="7467600" cy="4660900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3683,26 +2968,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="21196300"/>
-          <a:ext cx="3505200" cy="3937000"/>
+          <a:off x="2946400" y="7607300"/>
+          <a:ext cx="1003300" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3735,10 +3020,236 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117600" y="12014200"/>
+          <a:ext cx="10058400" cy="4792268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="13512800"/>
+          <a:ext cx="1435100" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="12877800"/>
+          <a:ext cx="1511300" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263900" y="13455650"/>
+          <a:ext cx="4394200" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4009,60 +3520,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="AG226" sqref="AG226"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4075,22 +3584,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="4" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
     </row>
@@ -4123,23 +3630,23 @@
     </row>
     <row r="14" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="33" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="40:40" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,88 +3660,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AK2:AM150"/>
+  <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AL120" sqref="AL120"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AK2" s="3" t="s">
-        <v>9</v>
+    <row r="2" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="19" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AK19" s="3" t="s">
+    <row r="19" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AK31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AK45" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL46" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL77" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM78" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM79" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL120" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM121" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL149" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="38:39" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM150" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="64" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="4:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4247,9 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4258,68 +3732,58 @@
   <sheetData>
     <row r="2" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56"/>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="74" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4329,14 +3793,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>